--- a/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7832" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="880">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3920,17 +3920,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddressRow0</t>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.87.10|2:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://testcom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3949,6 +3942,13 @@
   <si>
     <t>"10.146.87.10"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.87.10|2:2</t>
   </si>
 </sst>
 </file>
@@ -4472,7 +4472,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4484,7 +4484,9 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4600,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>254</v>
@@ -4691,7 +4693,7 @@
         <v>846</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>869</v>
@@ -5088,20 +5090,16 @@
         <v>632</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>872</v>
+        <v>633</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>874</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -5152,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5226,13 +5224,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>849</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5256,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5330,13 +5328,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>849</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7831" uniqueCount="881">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3949,6 +3949,10 @@
   </si>
   <si>
     <t>10.146.87.10|2:2</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4106,7 +4110,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,8 +4121,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4158,10 +4165,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4472,7 +4484,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5134,6 +5146,10 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" ht="14.25">
+      <c r="A23" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7831" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7837" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3952,6 +3952,10 @@
   </si>
   <si>
     <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4481,16 +4485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
@@ -4686,7 +4690,7 @@
         <v>823</v>
       </c>
       <c r="B7" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4814,12 +4818,14 @@
         <v>632</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>869</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4839,13 +4845,13 @@
         <v>838</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>575</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4"/>
@@ -4873,7 +4879,7 @@
         <v>575</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="4"/>
@@ -4898,20 +4904,14 @@
         <v>571</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J14" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -4935,11 +4935,17 @@
         <v>601</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -4960,10 +4966,10 @@
         <v>571</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="4"/>
@@ -4988,7 +4994,7 @@
         <v>571</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5016,7 +5022,7 @@
         <v>571</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>2</v>
@@ -5044,7 +5050,7 @@
         <v>571</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>2</v>
@@ -5074,7 +5080,7 @@
         <v>571</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>607</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>2</v>
@@ -5099,17 +5105,15 @@
         <v>838</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>633</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>879</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -5132,12 +5136,14 @@
         <v>632</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>879</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5145,11 +5151,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>881</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5157,17 +5165,15 @@
         <v>838</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>873</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -5175,7 +5181,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="14.25">
       <c r="C24" s="4">
         <v>23</v>
       </c>
@@ -5186,12 +5192,14 @@
         <v>571</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>580</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>873</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -5199,7 +5207,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25">
+    <row r="25" spans="1:14">
       <c r="C25" s="4">
         <v>24</v>
       </c>
@@ -5207,15 +5215,15 @@
         <v>838</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -5231,23 +5239,17 @@
         <v>838</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>875</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -5267,19 +5269,23 @@
         <v>580</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>875</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="14.25">
       <c r="C28" s="4">
         <v>27</v>
       </c>
@@ -5290,12 +5296,14 @@
         <v>571</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>17</v>
+        <v>580</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>874</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5311,10 +5319,10 @@
         <v>838</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>2</v>
@@ -5327,7 +5335,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25">
+    <row r="30" spans="1:14">
       <c r="C30" s="4">
         <v>29</v>
       </c>
@@ -5335,29 +5343,23 @@
         <v>838</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>876</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="14.25">
       <c r="C31" s="4">
         <v>30</v>
       </c>
@@ -5368,14 +5370,20 @@
         <v>571</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>876</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -5389,7 +5397,7 @@
         <v>838</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>100</v>
@@ -5405,16 +5413,22 @@
       <c r="M32" s="4"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="3:14" ht="15">
+    <row r="33" spans="3:14">
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="D33" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5423,22 +5437,18 @@
       <c r="M33" s="4"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" ht="15">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
+      <c r="D34" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5450,17 +5460,15 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="4"/>
@@ -5480,38 +5488,38 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:14" ht="14.25">
+    <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>847</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5519,7 +5527,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" ht="14.25">
       <c r="C38" s="4">
         <v>37</v>
       </c>
@@ -5530,12 +5538,12 @@
         <v>851</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>215</v>
+        <v>633</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="15"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5550,17 +5558,17 @@
       <c r="D39" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>640</v>
+      <c r="E39" s="9" t="s">
+        <v>851</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5574,11 +5582,11 @@
       <c r="D40" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>851</v>
+      <c r="E40" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>2</v>
@@ -5592,6 +5600,27 @@
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="3:14">
+      <c r="C41" s="4">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="3:14">
@@ -5801,9 +5830,12 @@
     <row r="110" spans="14:14">
       <c r="N110" s="14"/>
     </row>
+    <row r="111" spans="14:14">
+      <c r="N111" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N110">
+  <conditionalFormatting sqref="N2:N111">
     <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5812,24 +5844,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F41">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38:G40 G2:G36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G41 G2:G37">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D36 D3:D4 D7 D9:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D37 D3:D4 D7 D9:D33">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H23" r:id="rId1"/>
-    <hyperlink ref="H27" r:id="rId2"/>
-    <hyperlink ref="J26" r:id="rId3"/>
-    <hyperlink ref="J30" r:id="rId4"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H28" r:id="rId2"/>
+    <hyperlink ref="J27" r:id="rId3"/>
+    <hyperlink ref="J31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.40_VelocityDeviceSettingOnDevicePropertiesDialog.xlsx
@@ -3955,8 +3955,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4487,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
